--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,15 @@
     <t>creepy</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -70,30 +73,24 @@
     <t>insane</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>destroying</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
@@ -103,22 +100,28 @@
     <t>hate</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>frightening</t>
   </si>
   <si>
     <t>fuck</t>
@@ -127,30 +130,27 @@
     <t>shocking</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>black</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -172,109 +172,124 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
     <t>live</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
+    <t>digital</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>right</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>world</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -754,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>49</v>
@@ -854,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
@@ -904,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K9">
-        <v>0.7192982456140351</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1072,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K11">
-        <v>0.6551724137931034</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1193,13 @@
         <v>56</v>
       </c>
       <c r="K12">
-        <v>0.6111111111111112</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K13">
-        <v>0.5833333333333334</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,13 +1293,13 @@
         <v>58</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>0.5384615384615384</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K16">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1454,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K18">
-        <v>0.4285714285714285</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6363636363636364</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K19">
-        <v>0.4242424242424243</v>
+        <v>0.375</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,10 +1572,10 @@
         <v>0.625</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K20">
-        <v>0.375</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K21">
-        <v>0.3611111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,37 +1669,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>8</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K22">
-        <v>0.3478260869565217</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K23">
-        <v>0.3157894736842105</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K24">
-        <v>0.2542372881355932</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1843,13 @@
         <v>69</v>
       </c>
       <c r="K25">
-        <v>0.2477231329690346</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L25">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>826</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5362318840579711</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K26">
-        <v>0.2195121951219512</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K27">
-        <v>0.180327868852459</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5319148936170213</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K28">
-        <v>0.1481481481481481</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5294117647058824</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K29">
-        <v>0.1408450704225352</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2069,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5217391304347826</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K30">
-        <v>0.1368421052631579</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2119,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K31">
-        <v>0.1294117647058824</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2172,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K32">
-        <v>0.1111111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L32">
         <v>6</v>
@@ -2196,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,7 +2219,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4615384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2222,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K33">
-        <v>0.1095890410958904</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4583333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K34">
-        <v>0.1076923076923077</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2319,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4230769230769231</v>
+        <v>0.375</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2328,13 +2343,13 @@
         <v>79</v>
       </c>
       <c r="K35">
-        <v>0.05109489051094891</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,13 +2369,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3809523809523809</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2372,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K36">
-        <v>0.02592592592592593</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2396,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>526</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,13 +2419,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.358974358974359</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2422,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K37">
-        <v>0.0253968253968254</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>307</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2454,13 +2469,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2472,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K38">
-        <v>0.02435064935064935</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2496,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>601</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2507,10 +2522,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2522,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K39">
-        <v>0.02409638554216868</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2546,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>648</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2554,13 +2569,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1282051282051282</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2572,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K40">
-        <v>0.02052785923753666</v>
+        <v>0.04259259259259259</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2596,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>334</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2604,19 +2619,19 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04040404040404041</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -2628,13 +2643,13 @@
         <v>85</v>
       </c>
       <c r="K41">
-        <v>0.0204865556978233</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2646,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>765</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2654,13 +2669,13 @@
         <v>86</v>
       </c>
       <c r="K42">
-        <v>0.01670506912442396</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2672,7 +2687,137 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1707</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43">
+        <v>0.02473498233215548</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44">
+        <v>0.02346041055718475</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45">
+        <v>0.0204865556978233</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46">
+        <v>0.01900921658986175</v>
+      </c>
+      <c r="L46">
+        <v>33</v>
+      </c>
+      <c r="M46">
+        <v>33</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>0.01623376623376623</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
